--- a/data/case1/15/Q2_3.xlsx
+++ b/data/case1/15/Q2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.17115097416287739</v>
+        <v>0.26126961572082763</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999402151616</v>
+        <v>-0.0059999999251196812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999486717286</v>
+        <v>-0.0039999999319597634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999062039251</v>
+        <v>-0.0079999998776809633</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999508323327</v>
+        <v>-0.002999999929189201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999523303558</v>
+        <v>-0.0019999999242834576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0030236769123432872</v>
+        <v>-0.0099999998300019932</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998816420188</v>
+        <v>-0.0099999998271713686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999682966951</v>
+        <v>-0.0019999999200894791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.073759641474095972</v>
+        <v>-0.0019999999190591922</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999684520162</v>
+        <v>-0.0029999999073444528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0025700623765430031</v>
+        <v>-0.0034999999014897476</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999597058462</v>
+        <v>-0.0034999999022389261</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0038517972192479988</v>
+        <v>-0.0079999998499395986</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998257782607</v>
+        <v>-0.00099999993381860719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999722064565</v>
+        <v>-0.0019999999239397326</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999971287636</v>
+        <v>0.017719031453101053</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999517723595</v>
+        <v>-0.0047988707352688564</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999586424195</v>
+        <v>-0.039171490531437758</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.031000328383770537</v>
+        <v>-0.0039999999270818876</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.003999999947041033</v>
+        <v>-0.044705075393508764</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999468198766</v>
+        <v>-0.0039999999225273086</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999357881464</v>
+        <v>-0.0049999999159098252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999786129763</v>
+        <v>-0.019999999732645435</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.01999999978328848</v>
+        <v>-0.019999999728833373</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999458223954</v>
+        <v>-0.0024999999183918931</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999413619634</v>
+        <v>-0.0024999999150385754</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999265678525</v>
+        <v>0.032173019321861673</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998645853267</v>
+        <v>-0.006999999833633197</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999345795807</v>
+        <v>-0.059999999200295306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998534751029</v>
+        <v>-0.0069999998206142777</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998240036803</v>
+        <v>-0.0099999997848172484</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999998819251203</v>
+        <v>-0.003999999855475167</v>
       </c>
     </row>
   </sheetData>
